--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phil\FORMATION\OPENCLASSROOM\PARCOURS DEV WEB\PROJET 4 - OPTIMISEZ UN SITE WEB EXISTANT\MA CHOUETTE AGENCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phil\FORMATION\OPENCLASSROOM\PARCOURS DEV WEB\PROJET 4 - OPTIMISEZ UN SITE WEB EXISTANT\MA CHOUETTE AGENCE\P4_la_chouette_agence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A2A9D3-DC05-4835-9B79-206E21AB3A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCFB6D7-9126-4BDB-AD98-3AFE99DCA795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Résultat de l'Audit" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Source">'Résultat de l''Audit'!$F$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Résultat de l''Audit'!$A$1:$F$30</definedName>
+    <definedName name="Source">'Résultat de l''Audit'!$F$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Résultat de l''Audit'!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="160">
   <si>
     <t>URL :</t>
   </si>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t xml:space="preserve">Les images ne semblent pas avoir une taille correspondante à leur conteneur (ex :1.jpg) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de recours aux balises sémantiques </t>
   </si>
   <si>
     <t>Utiliser au maximum les balises sémantiques</t>
@@ -545,6 +542,21 @@
   </si>
   <si>
     <t>Le contraste des couleurs entre le contenu d'arrière-plan et de premier plan doit être au minimum AA pour garantir la lisibilité</t>
+  </si>
+  <si>
+    <t>Utilser des polices dont la taille est supérieure à 12px,</t>
+  </si>
+  <si>
+    <t>Pas de recours aux balises sémantiques +B12B10:C13B10:C15B10B10</t>
+  </si>
+  <si>
+    <t>Les tailles de polices inférieures à 12px sont trop petites et obligent les utilisateurs mobiles "à pincer pour zoomer"</t>
+  </si>
+  <si>
+    <t>Le site n'utilise en grande majorité de police lisibles.</t>
+  </si>
+  <si>
+    <t>S'efforcer d'avoir au moins 60% du texte de la page avec des tailles de polices supérieures à 12px</t>
   </si>
 </sst>
 </file>
@@ -877,15 +889,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -946,6 +949,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -970,7 +982,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>249382</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1025,7 +1037,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>249382</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1080,7 +1092,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>249382</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1415,14 +1427,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1498,7 +1510,7 @@
       <c r="B15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1555,7 +1567,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="73"/>
+      <c r="K21" s="70"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -1598,7 +1610,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="88"/>
+      <c r="K24" s="85"/>
       <c r="L24" s="1" t="s">
         <v>125</v>
       </c>
@@ -1644,7 +1656,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="73"/>
+      <c r="K27" s="70"/>
       <c r="L27" s="1" t="s">
         <v>126</v>
       </c>
@@ -1690,7 +1702,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="73"/>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -1761,7 +1773,7 @@
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="73"/>
+      <c r="K36" s="70"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
@@ -1789,7 +1801,7 @@
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="73"/>
+      <c r="K38" s="70"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1817,7 +1829,7 @@
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="73"/>
+      <c r="K40" s="70"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
@@ -1845,7 +1857,7 @@
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="73"/>
+      <c r="K42" s="70"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -1873,7 +1885,7 @@
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="73"/>
+      <c r="K44" s="70"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
@@ -1901,7 +1913,7 @@
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="73"/>
+      <c r="K46" s="70"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -1929,7 +1941,7 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="73"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
@@ -1957,7 +1969,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="73"/>
+      <c r="K50" s="70"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
@@ -2017,7 +2029,7 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="73"/>
+      <c r="K54" s="70"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
@@ -2045,7 +2057,7 @@
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
       <c r="J56" s="37"/>
-      <c r="K56" s="73"/>
+      <c r="K56" s="70"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
@@ -2189,7 +2201,7 @@
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
       <c r="J67" s="51"/>
-      <c r="K67" s="73"/>
+      <c r="K67" s="70"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="45"/>
@@ -2217,7 +2229,7 @@
       <c r="H69" s="51"/>
       <c r="I69" s="51"/>
       <c r="J69" s="51"/>
-      <c r="K69" s="73"/>
+      <c r="K69" s="70"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="52"/>
@@ -2245,7 +2257,7 @@
       <c r="H71" s="54"/>
       <c r="I71" s="54"/>
       <c r="J71" s="54"/>
-      <c r="K71" s="73"/>
+      <c r="K71" s="70"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
@@ -2288,7 +2300,7 @@
       <c r="H75" s="61"/>
       <c r="I75" s="61"/>
       <c r="J75" s="61"/>
-      <c r="K75" s="73"/>
+      <c r="K75" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2308,40 +2320,40 @@
     <tabColor theme="4" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="32.1796875" style="69" customWidth="1"/>
-    <col min="4" max="4" width="32.08984375" style="69" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="69" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" style="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.1796875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="32.08984375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="66" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="65" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="62"/>
@@ -2365,535 +2377,555 @@
       <c r="Y1" s="62"/>
       <c r="Z1" s="62"/>
     </row>
-    <row r="2" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:26" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="75" t="s">
+      <c r="E2" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="77" t="s">
+      <c r="C4" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="71"/>
+    </row>
+    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F12" s="84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="81" t="s">
+    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="81" t="s">
+    <row r="14" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="81" t="s">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+    <row r="16" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="81" t="s">
+      <c r="B16" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="81" t="s">
+      <c r="B17" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+    <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="81" t="s">
+      <c r="B18" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="85" t="s">
+      <c r="B19" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="C26" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="77"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="77"/>
       <c r="E28" s="77"/>
-      <c r="F28" s="81"/>
+      <c r="F28" s="78"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="75" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="81"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="78"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="78"/>
+    </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2905,49 +2937,49 @@
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
+      <c r="A44" s="69"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="72"/>
+      <c r="A45" s="69"/>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
+      <c r="A46" s="69"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
+      <c r="A47" s="69"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
+      <c r="A48" s="69"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
+      <c r="A49" s="69"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
+      <c r="A50" s="69"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
+      <c r="A51" s="69"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
+      <c r="A52" s="69"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
+      <c r="A53" s="69"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
+      <c r="A54" s="69"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
+      <c r="A55" s="69"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A56" s="69"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="69"/>
+    </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3894,39 +3926,41 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+    <sortCondition ref="A2:A27"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F21" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="F22" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="F23" r:id="rId4" xr:uid="{65A467BE-1E40-4E4C-B7F2-7EAB1852636D}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="F24" r:id="rId7" xr:uid="{78520490-6168-48A4-82DC-08B46B132495}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{9C7DD2FA-2C73-4064-805E-257756079D1E}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F23" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{65A467BE-1E40-4E4C-B7F2-7EAB1852636D}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="F25" r:id="rId7" xr:uid="{78520490-6168-48A4-82DC-08B46B132495}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{9C7DD2FA-2C73-4064-805E-257756079D1E}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="F3" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="F26" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="F14" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="F16" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="F18" r:id="rId18" location="La_popularite_du_site" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="F19" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="F20" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="F9" r:id="rId21" xr:uid="{EA64EAD3-53AD-4B8C-AF2D-175CC6A217DB}"/>
-    <hyperlink ref="F25" r:id="rId22" xr:uid="{31FF499A-D31D-4D1F-AA4A-C37E818E964F}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F27" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="F19" r:id="rId18" location="La_popularite_du_site" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="F10" r:id="rId21" xr:uid="{EA64EAD3-53AD-4B8C-AF2D-175CC6A217DB}"/>
+    <hyperlink ref="F26" r:id="rId22" xr:uid="{31FF499A-D31D-4D1F-AA4A-C37E818E964F}"/>
     <hyperlink ref="F5" r:id="rId23" xr:uid="{1EB30265-07AF-4435-9132-D11F3C25965C}"/>
     <hyperlink ref="F2" r:id="rId24" xr:uid="{755D81F2-CDA6-4165-A4C5-F1C18B28FB0D}"/>
     <hyperlink ref="F4" r:id="rId25" xr:uid="{D890E82F-796C-4087-A92B-25698A05CA38}"/>
+    <hyperlink ref="F6" r:id="rId26" xr:uid="{9CE7A40E-9C41-4530-8365-167123D1A629}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="64" fitToHeight="0" orientation="landscape" r:id="rId26"/>
-  <drawing r:id="rId27"/>
+  <pageSetup scale="64" fitToHeight="0" orientation="landscape" r:id="rId27"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>